--- a/src/Nummerneinteilung.xlsx
+++ b/src/Nummerneinteilung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH00BZS\git\Nummerneinteilung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH00BZS\git\Nummerneinteilung\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9EA744-1478-4D92-9193-A5C66E1F169B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E4C2203-BAA0-48B4-BEF5-B9D5AD754ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -355,7 +354,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,36 +376,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44622</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44622</v>
+      <c r="A2">
+        <v>20220302</v>
+      </c>
+      <c r="B2">
+        <v>20220305</v>
+      </c>
+      <c r="C2">
+        <v>20220302</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44635</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44635</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44632</v>
+      <c r="A3">
+        <v>20220315</v>
+      </c>
+      <c r="B3">
+        <v>20220315</v>
+      </c>
+      <c r="C3">
+        <v>20220312</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44646</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44644</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44646</v>
+      <c r="A4">
+        <v>20220326</v>
+      </c>
+      <c r="B4">
+        <v>20220324</v>
+      </c>
+      <c r="C4">
+        <v>20220326</v>
       </c>
     </row>
   </sheetData>

--- a/src/Nummerneinteilung.xlsx
+++ b/src/Nummerneinteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH00BZS\git\Nummerneinteilung\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E4C2203-BAA0-48B4-BEF5-B9D5AD754ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FA29B-1AA5-4DD5-8846-03A01FCA6728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>nummer1</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>nummer3</t>
+  </si>
+  <si>
+    <t>nummer4</t>
+  </si>
+  <si>
+    <t>nummer5</t>
   </si>
 </sst>
 </file>
@@ -351,20 +357,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,8 +380,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20220302</v>
       </c>
@@ -385,8 +397,14 @@
       <c r="C2">
         <v>20220302</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>20220305</v>
+      </c>
+      <c r="E2">
+        <v>20220302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20220315</v>
       </c>
@@ -396,8 +414,14 @@
       <c r="C3">
         <v>20220312</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>20220332</v>
+      </c>
+      <c r="E3">
+        <v>20220312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20220326</v>
       </c>
@@ -406,6 +430,46 @@
       </c>
       <c r="C4">
         <v>20220326</v>
+      </c>
+      <c r="D4">
+        <v>20220324</v>
+      </c>
+      <c r="E4">
+        <v>20220326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20220405</v>
+      </c>
+      <c r="B5">
+        <v>20220408</v>
+      </c>
+      <c r="C5">
+        <v>20220405</v>
+      </c>
+      <c r="D5">
+        <v>20220405</v>
+      </c>
+      <c r="E5">
+        <v>20220401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20220501</v>
+      </c>
+      <c r="B6">
+        <v>20220507</v>
+      </c>
+      <c r="C6">
+        <v>20220509</v>
+      </c>
+      <c r="D6">
+        <v>20220501</v>
+      </c>
+      <c r="E6">
+        <v>20220501</v>
       </c>
     </row>
   </sheetData>

--- a/src/Nummerneinteilung.xlsx
+++ b/src/Nummerneinteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH00BZS\git\Nummerneinteilung\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FA29B-1AA5-4DD5-8846-03A01FCA6728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75440363-4E36-4D19-997A-8655CE576CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>nummer1</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>nummer5</t>
+  </si>
+  <si>
+    <t>nummer6</t>
   </si>
 </sst>
 </file>
@@ -357,20 +360,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="5" width="19.42578125" customWidth="1"/>
+    <col min="3" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +389,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20220302</v>
       </c>
@@ -403,8 +409,11 @@
       <c r="E2">
         <v>20220302</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>20220301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20220315</v>
       </c>
@@ -420,8 +429,11 @@
       <c r="E3">
         <v>20220312</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>20220312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20220326</v>
       </c>
@@ -437,8 +449,11 @@
       <c r="E4">
         <v>20220326</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>20220325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20220405</v>
       </c>
@@ -454,8 +469,11 @@
       <c r="E5">
         <v>20220401</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>20220401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20220501</v>
       </c>
@@ -470,6 +488,29 @@
       </c>
       <c r="E6">
         <v>20220501</v>
+      </c>
+      <c r="F6">
+        <v>20220501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20220601</v>
+      </c>
+      <c r="B7">
+        <v>20220602</v>
+      </c>
+      <c r="C7">
+        <v>20220601</v>
+      </c>
+      <c r="D7">
+        <v>20220604</v>
+      </c>
+      <c r="E7">
+        <v>20220605</v>
+      </c>
+      <c r="F7">
+        <v>20220605</v>
       </c>
     </row>
   </sheetData>

--- a/src/Nummerneinteilung.xlsx
+++ b/src/Nummerneinteilung.xlsx
@@ -1,31 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH00BZS\git\Nummerneinteilung\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\git\Nummerneinteilung\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75440363-4E36-4D19-997A-8655CE576CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD4AF1-2E2F-4E51-A15C-C913B468575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="NummernNLB" sheetId="1" r:id="rId1"/>
+    <sheet name="Nummern1L" sheetId="5" r:id="rId2"/>
+    <sheet name="ModusNLB" sheetId="3" r:id="rId3"/>
+    <sheet name="Modus1L" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="147">
   <si>
     <t>nummer1</t>
   </si>
@@ -43,13 +79,439 @@
   </si>
   <si>
     <t>nummer6</t>
+  </si>
+  <si>
+    <t>nummer7</t>
+  </si>
+  <si>
+    <t>nummer8</t>
+  </si>
+  <si>
+    <t>nummer9</t>
+  </si>
+  <si>
+    <t>nummer10</t>
+  </si>
+  <si>
+    <t>nummer11</t>
+  </si>
+  <si>
+    <t>nummer12</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>12 - 1</t>
+  </si>
+  <si>
+    <t>8 - 1</t>
+  </si>
+  <si>
+    <t>1 - 7</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>11 - 1</t>
+  </si>
+  <si>
+    <t>1 - 6</t>
+  </si>
+  <si>
+    <t>9 - 1</t>
+  </si>
+  <si>
+    <t>4 - 8</t>
+  </si>
+  <si>
+    <t>8 - 2</t>
+  </si>
+  <si>
+    <t>5 - 1</t>
+  </si>
+  <si>
+    <t>3 - 4</t>
+  </si>
+  <si>
+    <t>3 - 10</t>
+  </si>
+  <si>
+    <t>7 - 4</t>
+  </si>
+  <si>
+    <t>3 - 8</t>
+  </si>
+  <si>
+    <t>2 - 9</t>
+  </si>
+  <si>
+    <t>4 - 5</t>
+  </si>
+  <si>
+    <t>10 - 2</t>
+  </si>
+  <si>
+    <t>6 - 10</t>
+  </si>
+  <si>
+    <t>1 - 10</t>
+  </si>
+  <si>
+    <t>10 - 5</t>
+  </si>
+  <si>
+    <t>12 - 2</t>
+  </si>
+  <si>
+    <t>5 - 6</t>
+  </si>
+  <si>
+    <t>8 - 5</t>
+  </si>
+  <si>
+    <t>10 - 11</t>
+  </si>
+  <si>
+    <t>5 - 2</t>
+  </si>
+  <si>
+    <t>4 - 11</t>
+  </si>
+  <si>
+    <t>2 - 6</t>
+  </si>
+  <si>
+    <t>3 - 7</t>
+  </si>
+  <si>
+    <t>2 - 4</t>
+  </si>
+  <si>
+    <t>2 - 7</t>
+  </si>
+  <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <t>11 - 3</t>
+  </si>
+  <si>
+    <t>7 - 8</t>
+  </si>
+  <si>
+    <t>6 - 7</t>
+  </si>
+  <si>
+    <t>9 - 5</t>
+  </si>
+  <si>
+    <t>11 - 6</t>
+  </si>
+  <si>
+    <t>5 - 7</t>
+  </si>
+  <si>
+    <t>9 - 3</t>
+  </si>
+  <si>
+    <t>12 - 4</t>
+  </si>
+  <si>
+    <t>11 - 8</t>
+  </si>
+  <si>
+    <t>12 - 5</t>
+  </si>
+  <si>
+    <t>3 - 12</t>
+  </si>
+  <si>
+    <t>4 - 6</t>
+  </si>
+  <si>
+    <t>9 - 10</t>
+  </si>
+  <si>
+    <t>4 - 9</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>10 - 4</t>
+  </si>
+  <si>
+    <t>6 - 8</t>
+  </si>
+  <si>
+    <t>8 - 12</t>
+  </si>
+  <si>
+    <t>5 - 11</t>
+  </si>
+  <si>
+    <t>5 - 3</t>
+  </si>
+  <si>
+    <t>3 - 6</t>
+  </si>
+  <si>
+    <t>6 - 9</t>
+  </si>
+  <si>
+    <t>9 - 7</t>
+  </si>
+  <si>
+    <t>11 - 12</t>
+  </si>
+  <si>
+    <t>2 - 11</t>
+  </si>
+  <si>
+    <t>6 - 12</t>
+  </si>
+  <si>
+    <t>9 - 12</t>
+  </si>
+  <si>
+    <t>12 - 10</t>
+  </si>
+  <si>
+    <t>7 - 10</t>
+  </si>
+  <si>
+    <t>8 - 9</t>
+  </si>
+  <si>
+    <t>7 - 12</t>
+  </si>
+  <si>
+    <t>11 - 9</t>
+  </si>
+  <si>
+    <t>7 - 11</t>
+  </si>
+  <si>
+    <t>10 - 8</t>
+  </si>
+  <si>
+    <t>2 - 1</t>
+  </si>
+  <si>
+    <t>1 - 12</t>
+  </si>
+  <si>
+    <t>1 - 8</t>
+  </si>
+  <si>
+    <t>7 - 1</t>
+  </si>
+  <si>
+    <t>3 - 1</t>
+  </si>
+  <si>
+    <t>1 - 11</t>
+  </si>
+  <si>
+    <t>6 - 1</t>
+  </si>
+  <si>
+    <t>1 - 9</t>
+  </si>
+  <si>
+    <t>8 - 4</t>
+  </si>
+  <si>
+    <t>2 - 8</t>
+  </si>
+  <si>
+    <t>1 - 5</t>
+  </si>
+  <si>
+    <t>4 - 3</t>
+  </si>
+  <si>
+    <t>10 - 3</t>
+  </si>
+  <si>
+    <t>4 - 7</t>
+  </si>
+  <si>
+    <t>8 - 3</t>
+  </si>
+  <si>
+    <t>9 - 2</t>
+  </si>
+  <si>
+    <t>5 - 4</t>
+  </si>
+  <si>
+    <t>2 - 10</t>
+  </si>
+  <si>
+    <t>10 - 6</t>
+  </si>
+  <si>
+    <t>10 - 1</t>
+  </si>
+  <si>
+    <t>5 - 10</t>
+  </si>
+  <si>
+    <t>2 - 12</t>
+  </si>
+  <si>
+    <t>6 - 5</t>
+  </si>
+  <si>
+    <t>5 - 8</t>
+  </si>
+  <si>
+    <t>11 - 10</t>
+  </si>
+  <si>
+    <t>2 - 5</t>
+  </si>
+  <si>
+    <t>11 - 4</t>
+  </si>
+  <si>
+    <t>6 - 2</t>
+  </si>
+  <si>
+    <t>7 - 3</t>
+  </si>
+  <si>
+    <t>4 - 2</t>
+  </si>
+  <si>
+    <t>7 - 2</t>
+  </si>
+  <si>
+    <t>4 - 1</t>
+  </si>
+  <si>
+    <t>3 - 11</t>
+  </si>
+  <si>
+    <t>8 - 7</t>
+  </si>
+  <si>
+    <t>7 - 6</t>
+  </si>
+  <si>
+    <t>5 - 9</t>
+  </si>
+  <si>
+    <t>6 - 11</t>
+  </si>
+  <si>
+    <t>7 - 5</t>
+  </si>
+  <si>
+    <t>3 - 9</t>
+  </si>
+  <si>
+    <t>4 - 12</t>
+  </si>
+  <si>
+    <t>8 - 11</t>
+  </si>
+  <si>
+    <t>5 - 12</t>
+  </si>
+  <si>
+    <t>12 - 3</t>
+  </si>
+  <si>
+    <t>6 - 4</t>
+  </si>
+  <si>
+    <t>10 - 9</t>
+  </si>
+  <si>
+    <t>9 - 4</t>
+  </si>
+  <si>
+    <t>3 - 2</t>
+  </si>
+  <si>
+    <t>4 - 10</t>
+  </si>
+  <si>
+    <t>8 - 6</t>
+  </si>
+  <si>
+    <t>12 - 8</t>
+  </si>
+  <si>
+    <t>11 - 5</t>
+  </si>
+  <si>
+    <t>3 - 5</t>
+  </si>
+  <si>
+    <t>6 - 3</t>
+  </si>
+  <si>
+    <t>9 - 6</t>
+  </si>
+  <si>
+    <t>7 - 9</t>
+  </si>
+  <si>
+    <t>12 - 11</t>
+  </si>
+  <si>
+    <t>11 - 2</t>
+  </si>
+  <si>
+    <t>12 - 6</t>
+  </si>
+  <si>
+    <t>12 - 9</t>
+  </si>
+  <si>
+    <t>10 - 12</t>
+  </si>
+  <si>
+    <t>10 - 7</t>
+  </si>
+  <si>
+    <t>9 - 8</t>
+  </si>
+  <si>
+    <t>12 - 7</t>
+  </si>
+  <si>
+    <t>9 - 11</t>
+  </si>
+  <si>
+    <t>11 - 7</t>
+  </si>
+  <si>
+    <t>8 - 10</t>
+  </si>
+  <si>
+    <t>mögliche Nummern:</t>
+  </si>
+  <si>
+    <t>Extrahiere erste 2 Ziffern um Heimmannschaft zu finden:</t>
+  </si>
+  <si>
+    <t>Schreibe alle Daten der Heimspiele zusammen:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="yyyymmdd"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +519,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -74,15 +568,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{10B9D53B-457F-4E06-A43F-8E2084FFBE27}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,20 +914,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="6" width="19.42578125" customWidth="1"/>
+    <col min="1" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,129 +944,2663 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20220302</v>
-      </c>
-      <c r="B2">
-        <v>20220305</v>
-      </c>
-      <c r="C2">
-        <v>20220302</v>
-      </c>
-      <c r="D2">
-        <v>20220305</v>
-      </c>
-      <c r="E2">
-        <v>20220302</v>
-      </c>
-      <c r="F2">
-        <v>20220301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20220315</v>
-      </c>
-      <c r="B3">
-        <v>20220315</v>
-      </c>
-      <c r="C3">
-        <v>20220312</v>
-      </c>
-      <c r="D3">
-        <v>20220332</v>
-      </c>
-      <c r="E3">
-        <v>20220312</v>
-      </c>
-      <c r="F3">
-        <v>20220312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20220326</v>
-      </c>
-      <c r="B4">
-        <v>20220324</v>
-      </c>
-      <c r="C4">
-        <v>20220326</v>
-      </c>
-      <c r="D4">
-        <v>20220324</v>
-      </c>
-      <c r="E4">
-        <v>20220326</v>
-      </c>
-      <c r="F4">
-        <v>20220325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20220405</v>
-      </c>
-      <c r="B5">
-        <v>20220408</v>
-      </c>
-      <c r="C5">
-        <v>20220405</v>
-      </c>
-      <c r="D5">
-        <v>20220405</v>
-      </c>
-      <c r="E5">
-        <v>20220401</v>
-      </c>
-      <c r="F5">
-        <v>20220401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20220501</v>
-      </c>
-      <c r="B6">
-        <v>20220507</v>
-      </c>
-      <c r="C6">
-        <v>20220509</v>
-      </c>
-      <c r="D6">
-        <v>20220501</v>
-      </c>
-      <c r="E6">
-        <v>20220501</v>
-      </c>
-      <c r="F6">
-        <v>20220501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20220601</v>
-      </c>
-      <c r="B7">
-        <v>20220602</v>
-      </c>
-      <c r="C7">
-        <v>20220601</v>
-      </c>
-      <c r="D7">
-        <v>20220604</v>
-      </c>
-      <c r="E7">
-        <v>20220605</v>
-      </c>
-      <c r="F7">
-        <v>20220605</v>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A13" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A14" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A15" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A16" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F21F9E6-4EFF-4B3D-9C54-B127386B1D15}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A13" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A14" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A15" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="A16" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD39499-3509-4031-9A8D-8B8C1731004B}">
+  <dimension ref="A1:V77"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="22" width="15.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8">
+        <v>20220924</v>
+      </c>
+      <c r="B1" s="8">
+        <v>20221001</v>
+      </c>
+      <c r="C1" s="8">
+        <v>20221002</v>
+      </c>
+      <c r="D1" s="8">
+        <v>20221008</v>
+      </c>
+      <c r="E1" s="8">
+        <v>20221015</v>
+      </c>
+      <c r="F1" s="8">
+        <v>20221022</v>
+      </c>
+      <c r="G1" s="8">
+        <v>20221029</v>
+      </c>
+      <c r="H1" s="8">
+        <v>20221105</v>
+      </c>
+      <c r="I1" s="8">
+        <v>20221112</v>
+      </c>
+      <c r="J1" s="8">
+        <v>20221119</v>
+      </c>
+      <c r="K1" s="9">
+        <v>20221126</v>
+      </c>
+      <c r="L1" s="8">
+        <v>20221203</v>
+      </c>
+      <c r="M1" s="9">
+        <v>20221210</v>
+      </c>
+      <c r="N1" s="8">
+        <v>20221217</v>
+      </c>
+      <c r="O1" s="8">
+        <v>20230107</v>
+      </c>
+      <c r="P1" s="9">
+        <v>20230114</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>20230121</v>
+      </c>
+      <c r="R1" s="9">
+        <v>20230128</v>
+      </c>
+      <c r="S1" s="8">
+        <v>20230204</v>
+      </c>
+      <c r="T1" s="9">
+        <v>20230211</v>
+      </c>
+      <c r="U1" s="8">
+        <v>20230218</v>
+      </c>
+      <c r="V1" s="8">
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="str">
+        <f>LEFT(A2,2)</f>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" ref="B10:K10" si="0">LEFT(B2,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f t="shared" ref="L10" si="1">LEFT(L2,2)</f>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" ref="M10:V10" si="2">LEFT(M2,2)</f>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="N10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="O10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="P10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="Q10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="R10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="T10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="V10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="str">
+        <f t="shared" ref="A11:K15" si="3">LEFT(A3,2)</f>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f t="shared" ref="L11" si="4">LEFT(L3,2)</f>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" ref="M11:V11" si="5">LEFT(M3,2)</f>
+        <v>10</v>
+      </c>
+      <c r="N11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="O11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="R11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="S11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="T11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="V11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f t="shared" ref="L12" si="6">LEFT(L4,2)</f>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" ref="M12:V12" si="7">LEFT(M4,2)</f>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="N12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="O12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="P12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="Q12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="R12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="T12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="U12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="V12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f t="shared" ref="L13" si="8">LEFT(L5,2)</f>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" ref="M13:V13" si="9">LEFT(M5,2)</f>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="N13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="O13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="R13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="T13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="U13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="V13" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" ref="L14:L15" si="10">LEFT(L6,2)</f>
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f t="shared" ref="M14:V14" si="11">LEFT(M6,2)</f>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="N14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="O14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="P14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="Q14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="R14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="T14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="U14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="V14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M15" s="3" t="str">
+        <f t="shared" ref="M15:V15" si="12">LEFT(M7,2)</f>
+        <v>11</v>
+      </c>
+      <c r="N15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="O15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="T15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="V15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <f>IF(COUNTIF(A$10:A$15, $A41)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f t="shared" ref="B19:D19" si="13">IF(COUNTIF(B$10:B$15, $A41)&gt;0, B$1, "")</f>
+        <v/>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="13"/>
+        <v>20221008</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" ref="E19:V19" si="14">IF(COUNTIF(E$10:E$15, $A41)&gt;0, E$1, "")</f>
+        <v>20221015</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="14"/>
+        <v>20221029</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="14"/>
+        <v>20221112</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="14"/>
+        <v>20221119</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="14"/>
+        <v>20221210</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="14"/>
+        <v>20221217</v>
+      </c>
+      <c r="O19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="P19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="14"/>
+        <v>20230121</v>
+      </c>
+      <c r="R19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="14"/>
+        <v>20230204</v>
+      </c>
+      <c r="T19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="U19" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="14"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="str">
+        <f>IF(COUNTIF(A$10:A$15, $A42)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" ref="B20:D20" si="15">IF(COUNTIF(B$10:B$15, $A42)&gt;0, B$1, "")</f>
+        <v>20221001</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" si="15"/>
+        <v>20221002</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" ref="E20:V20" si="16">IF(COUNTIF(E$10:E$15, $A42)&gt;0, E$1, "")</f>
+        <v>20221015</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="16"/>
+        <v>20221022</v>
+      </c>
+      <c r="G20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="16"/>
+        <v>20221105</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="16"/>
+        <v>20221112</v>
+      </c>
+      <c r="J20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="16"/>
+        <v>20221203</v>
+      </c>
+      <c r="M20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="16"/>
+        <v>20230107</v>
+      </c>
+      <c r="P20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="16"/>
+        <v>20230128</v>
+      </c>
+      <c r="S20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="T20" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" si="16"/>
+        <v>20230218</v>
+      </c>
+      <c r="V20" s="10">
+        <f t="shared" si="16"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <f t="shared" ref="A21:C29" si="17">IF(COUNTIF(A$10:A$15, $A43)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="17"/>
+        <v>20221001</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" ref="D21:V21" si="18">IF(COUNTIF(D$10:D$15, $A43)&gt;0, D$1, "")</f>
+        <v>20221008</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="18"/>
+        <v>20221029</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="18"/>
+        <v>20221112</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="18"/>
+        <v>20221119</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="18"/>
+        <v>20221217</v>
+      </c>
+      <c r="O21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="18"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="18"/>
+        <v>20230121</v>
+      </c>
+      <c r="R21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="18"/>
+        <v>20230204</v>
+      </c>
+      <c r="T21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="U21" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V21" s="10">
+        <f t="shared" si="18"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="17"/>
+        <v>20221001</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f t="shared" ref="D22:V22" si="19">IF(COUNTIF(D$10:D$15, $A44)&gt;0, D$1, "")</f>
+        <v/>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="19"/>
+        <v>20221015</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="19"/>
+        <v>20221022</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="19"/>
+        <v>20221112</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="19"/>
+        <v>20221126</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="19"/>
+        <v>20221203</v>
+      </c>
+      <c r="M22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="19"/>
+        <v>20221217</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="19"/>
+        <v>20230107</v>
+      </c>
+      <c r="P22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="19"/>
+        <v>20230128</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="19"/>
+        <v>20230204</v>
+      </c>
+      <c r="T22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" si="19"/>
+        <v>20230218</v>
+      </c>
+      <c r="V22" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <f t="shared" si="17"/>
+        <v>20220924</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" ref="D23:V23" si="20">IF(COUNTIF(D$10:D$15, $A45)&gt;0, D$1, "")</f>
+        <v>20221008</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="20"/>
+        <v>20221015</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="20"/>
+        <v>20221029</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="20"/>
+        <v>20221105</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="20"/>
+        <v>20221126</v>
+      </c>
+      <c r="L23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="20"/>
+        <v>20221210</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="20"/>
+        <v>20221217</v>
+      </c>
+      <c r="O23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="P23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="20"/>
+        <v>20230121</v>
+      </c>
+      <c r="R23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="S23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="20"/>
+        <v>20230211</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" si="20"/>
+        <v>20230218</v>
+      </c>
+      <c r="V23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="B24" s="10">
+        <f t="shared" si="17"/>
+        <v>20221001</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="17"/>
+        <v>20221002</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" ref="D24:V24" si="21">IF(COUNTIF(D$10:D$15, $A46)&gt;0, D$1, "")</f>
+        <v/>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="21"/>
+        <v>20221015</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="21"/>
+        <v>20221105</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="21"/>
+        <v>20221119</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="21"/>
+        <v>20221203</v>
+      </c>
+      <c r="M24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="21"/>
+        <v>20230107</v>
+      </c>
+      <c r="P24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="21"/>
+        <v>20230121</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="21"/>
+        <v>20230128</v>
+      </c>
+      <c r="S24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="21"/>
+        <v>20230211</v>
+      </c>
+      <c r="U24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="V24" s="10">
+        <f t="shared" si="21"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <f t="shared" si="17"/>
+        <v>20220924</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="17"/>
+        <v>20221002</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" ref="D25:V25" si="22">IF(COUNTIF(D$10:D$15, $A47)&gt;0, D$1, "")</f>
+        <v/>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="22"/>
+        <v>20221022</v>
+      </c>
+      <c r="G25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="22"/>
+        <v>20221105</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="22"/>
+        <v>20221119</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="22"/>
+        <v>20221210</v>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="22"/>
+        <v>20230107</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="22"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="22"/>
+        <v>20230128</v>
+      </c>
+      <c r="S25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="T25" s="10">
+        <f t="shared" si="22"/>
+        <v>20230211</v>
+      </c>
+      <c r="U25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V25" s="10">
+        <f t="shared" si="22"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" si="17"/>
+        <v>20221001</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="17"/>
+        <v>20221002</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" ref="D26:V26" si="23">IF(COUNTIF(D$10:D$15, $A48)&gt;0, D$1, "")</f>
+        <v/>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="23"/>
+        <v>20221022</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="23"/>
+        <v>20221029</v>
+      </c>
+      <c r="H26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="23"/>
+        <v>20221119</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="23"/>
+        <v>20221203</v>
+      </c>
+      <c r="M26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="23"/>
+        <v>20230107</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="23"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="R26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="23"/>
+        <v>20230204</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="23"/>
+        <v>20230211</v>
+      </c>
+      <c r="U26" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="V26" s="10">
+        <f t="shared" si="23"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <f t="shared" si="17"/>
+        <v>20220924</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="17"/>
+        <v>20221002</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:V27" si="24">IF(COUNTIF(D$10:D$15, $A49)&gt;0, D$1, "")</f>
+        <v>20221008</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="24"/>
+        <v>20221022</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="24"/>
+        <v>20221105</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="24"/>
+        <v>20221126</v>
+      </c>
+      <c r="L27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="24"/>
+        <v>20221210</v>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="24"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="24"/>
+        <v>20230128</v>
+      </c>
+      <c r="S27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="24"/>
+        <v>20230211</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="24"/>
+        <v>20230218</v>
+      </c>
+      <c r="V27" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="17"/>
+        <v>20221002</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:V28" si="25">IF(COUNTIF(D$10:D$15, $A50)&gt;0, D$1, "")</f>
+        <v>20221008</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="25"/>
+        <v>20221029</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="25"/>
+        <v>20221119</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="25"/>
+        <v>20221126</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="25"/>
+        <v>20221203</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="25"/>
+        <v>20221210</v>
+      </c>
+      <c r="N28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="25"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="25"/>
+        <v>20230121</v>
+      </c>
+      <c r="R28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="25"/>
+        <v>20230204</v>
+      </c>
+      <c r="T28" s="10">
+        <f t="shared" si="25"/>
+        <v>20230211</v>
+      </c>
+      <c r="U28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V28" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <f t="shared" si="17"/>
+        <v>20220924</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" ref="D29:V29" si="26">IF(COUNTIF(D$10:D$15, $A51)&gt;0, D$1, "")</f>
+        <v>20221008</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="26"/>
+        <v>20221022</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="26"/>
+        <v>20221105</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="26"/>
+        <v>20221112</v>
+      </c>
+      <c r="J29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="26"/>
+        <v>20221126</v>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="26"/>
+        <v>20221210</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="26"/>
+        <v>20221217</v>
+      </c>
+      <c r="O29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="26"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="26"/>
+        <v>20230128</v>
+      </c>
+      <c r="S29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="T29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="U29" s="10">
+        <f t="shared" si="26"/>
+        <v>20230218</v>
+      </c>
+      <c r="V29" s="10" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="str">
+        <f>IF(COUNTIF(A$10:A$15, $A52)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" ref="B30:D30" si="27">IF(COUNTIF(B$10:B$15, $A52)&gt;0, B$1, "")</f>
+        <v>20221001</v>
+      </c>
+      <c r="C30" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" ref="E30:V30" si="28">IF(COUNTIF(E$10:E$15, $A52)&gt;0, E$1, "")</f>
+        <v>20221015</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="28"/>
+        <v>20221029</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="28"/>
+        <v>20221112</v>
+      </c>
+      <c r="J30" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="28"/>
+        <v>20221126</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="28"/>
+        <v>20221203</v>
+      </c>
+      <c r="M30" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="28"/>
+        <v>20221217</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="28"/>
+        <v>20230107</v>
+      </c>
+      <c r="P30" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="Q30" s="10">
+        <f t="shared" si="28"/>
+        <v>20230121</v>
+      </c>
+      <c r="R30" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="28"/>
+        <v>20230204</v>
+      </c>
+      <c r="T30" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="U30" s="10">
+        <f t="shared" si="28"/>
+        <v>20230218</v>
+      </c>
+      <c r="V30" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="str">
+        <f t="shared" ref="A32" si="29">IF(COUNTIF($A$10:$A$15, 2)&gt;0, $A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>11</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>12</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B7119F-7496-41EF-A8A8-0D4C2A0D5672}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Nummerneinteilung.xlsx
+++ b/src/Nummerneinteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\git\Nummerneinteilung\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH00BZS\git\Nummerneinteilung\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD4AF1-2E2F-4E51-A15C-C913B468575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D7514B-2328-44D7-A30B-3DD5514F4A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3690" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NummernNLB" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
   <si>
     <t>nummer1</t>
   </si>
@@ -509,9 +509,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyymmdd"/>
+    <numFmt numFmtId="164" formatCode="yyyymmdd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,12 +533,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -610,19 +604,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -632,7 +626,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -914,18 +907,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,59 +956,554 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A13" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A14" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A15" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A16" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
-        <v/>
+    <row r="2" spans="1:12">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="C2">
+        <f t="array" ref="C2">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="D2">
+        <f t="array" ref="D2">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="E2">
+        <f t="array" ref="E2">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="F2">
+        <f t="array" ref="F2">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="G2">
+        <f t="array" ref="G2">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="I2">
+        <f t="array" ref="I2">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="J2">
+        <f t="array" ref="J2">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A1))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="K2">
+        <f t="array" ref="K2">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="L2">
+        <f t="array" ref="L2">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" cm="1">
+        <f t="array" ref="A3">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A2))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="B3" cm="1">
+        <f t="array" ref="B3">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="C3">
+        <f t="array" ref="C3">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A2))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="D3">
+        <f t="array" ref="D3">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A2))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="E3">
+        <f t="array" ref="E3">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A2))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="F3">
+        <f t="array" ref="F3">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="G3">
+        <f t="array" ref="G3">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="H3">
+        <f t="array" ref="H3">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="I3">
+        <f t="array" ref="I3">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="J3">
+        <f t="array" ref="J3">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A2))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="K3">
+        <f t="array" ref="K3">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A2))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="L3">
+        <f t="array" ref="L3">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A2))),"")</f>
+        <v>20221015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" cm="1">
+        <f t="array" ref="A4">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A3))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="B4" cm="1">
+        <f t="array" ref="B4">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B3))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="C4">
+        <f t="array" ref="C4">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A3))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="D4">
+        <f t="array" ref="D4">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A3))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="E4">
+        <f t="array" ref="E4">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A3))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="F4">
+        <f t="array" ref="F4">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A3))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="G4">
+        <f t="array" ref="G4">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A3))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="H4">
+        <f t="array" ref="H4">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A3))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="I4">
+        <f t="array" ref="I4">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A3))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="J4">
+        <f t="array" ref="J4">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A3))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="K4">
+        <f t="array" ref="K4">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A3))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="L4">
+        <f t="array" ref="L4">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A3))),"")</f>
+        <v>20221029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" cm="1">
+        <f t="array" ref="A5">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A4))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B4))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="C5">
+        <f t="array" ref="C5">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A4))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="D5">
+        <f t="array" ref="D5">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A4))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="E5">
+        <f t="array" ref="E5">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A4))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="F5">
+        <f t="array" ref="F5">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A4))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="G5">
+        <f t="array" ref="G5">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A4))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="H5">
+        <f t="array" ref="H5">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A4))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="I5">
+        <f t="array" ref="I5">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A4))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="J5">
+        <f t="array" ref="J5">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A4))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="K5">
+        <f t="array" ref="K5">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A4))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="L5">
+        <f t="array" ref="L5">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A4))),"")</f>
+        <v>20221112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" cm="1">
+        <f t="array" ref="A6">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A5))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B5))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="C6">
+        <f t="array" ref="C6">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A5))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="D6">
+        <f t="array" ref="D6">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A5))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="E6">
+        <f t="array" ref="E6">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A5))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="F6">
+        <f t="array" ref="F6">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A5))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="G6">
+        <f t="array" ref="G6">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A5))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="H6">
+        <f t="array" ref="H6">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A5))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="I6">
+        <f t="array" ref="I6">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A5))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="J6">
+        <f t="array" ref="J6">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A5))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="K6">
+        <f t="array" ref="K6">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A5))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="L6">
+        <f t="array" ref="L6">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A5))),"")</f>
+        <v>20221126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" cm="1">
+        <f t="array" ref="A7">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A6))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B6))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="C7">
+        <f t="array" ref="C7">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A6))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="D7">
+        <f t="array" ref="D7">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="E7">
+        <f t="array" ref="E7">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A6))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="F7">
+        <f t="array" ref="F7">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="G7">
+        <f t="array" ref="G7">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A6))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="H7">
+        <f t="array" ref="H7">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="I7">
+        <f t="array" ref="I7">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A6))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="J7">
+        <f t="array" ref="J7">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="K7">
+        <f t="array" ref="K7">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A6))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="L7">
+        <f t="array" ref="L7">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" cm="1">
+        <f t="array" ref="A8">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B7))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="C8">
+        <f t="array" ref="C8">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A7))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="D8">
+        <f t="array" ref="D8">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A7))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="E8">
+        <f t="array" ref="E8">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="F8">
+        <f t="array" ref="F8">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A7))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="G8">
+        <f t="array" ref="G8">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A7))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="H8">
+        <f t="array" ref="H8">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A7))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="J8">
+        <f t="array" ref="J8">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="K8">
+        <f t="array" ref="K8">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="L8">
+        <f t="array" ref="L8">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A7))),"")</f>
+        <v>20221217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" cm="1">
+        <f t="array" ref="A9">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A8))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B8))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="C9">
+        <f t="array" ref="C9">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="D9">
+        <f t="array" ref="D9">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A8))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="E9">
+        <f t="array" ref="E9">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A8))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="F9">
+        <f t="array" ref="F9">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A8))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="G9">
+        <f t="array" ref="G9">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="H9">
+        <f t="array" ref="H9">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="J9">
+        <f t="array" ref="J9">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="K9">
+        <f t="array" ref="K9">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A8))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="L9">
+        <f t="array" ref="L9">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A8))),"")</f>
+        <v>20230107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" cm="1">
+        <f t="array" ref="A10">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="B10" cm="1">
+        <f t="array" ref="B10">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="C10">
+        <f t="array" ref="C10">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="D10">
+        <f t="array" ref="D10">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="E10">
+        <f t="array" ref="E10">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="F10">
+        <f t="array" ref="F10">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="G10">
+        <f t="array" ref="G10">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="H10">
+        <f t="array" ref="H10">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A9))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="I10">
+        <f t="array" ref="I10">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="J10">
+        <f t="array" ref="J10">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="K10">
+        <f t="array" ref="K10">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A9))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="L10">
+        <f t="array" ref="L10">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" cm="1">
+        <f t="array" ref="A11">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B10))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="C11">
+        <f t="array" ref="C11">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="D11">
+        <f t="array" ref="D11">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="E11">
+        <f t="array" ref="E11">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="F11">
+        <f t="array" ref="F11">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="G11">
+        <f t="array" ref="G11">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="H11">
+        <f t="array" ref="H11">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="I11">
+        <f t="array" ref="I11">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="J11">
+        <f t="array" ref="J11">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="K11">
+        <f t="array" ref="K11">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A10))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="L11">
+        <f t="array" ref="L11">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" cm="1">
+        <f t="array" ref="A12">IFERROR(INDEX(ModusNLB!$A$19:$V$19,SMALL(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="B12" cm="1">
+        <f t="array" ref="B12">IFERROR(INDEX(ModusNLB!$A$20:$V$20,SMALL(IF(ModusNLB!$A$20:$V$20&lt;&gt;"",COLUMN(ModusNLB!$A$20:$V$20)-COLUMN(ModusNLB!$A$20)+1),ROW(B11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="C12">
+        <f t="array" ref="C12">IFERROR(INDEX(ModusNLB!$A$21:$V$21,SMALL(IF(ModusNLB!$A$21:$V$21&lt;&gt;"",COLUMN(ModusNLB!$A$21:$V$21)-COLUMN(ModusNLB!$A$21)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="D12">
+        <f t="array" ref="D12">IFERROR(INDEX(ModusNLB!$A$22:$V$22,SMALL(IF(ModusNLB!$A$22:$V$22&lt;&gt;"",COLUMN(ModusNLB!$A$22:$V$22)-COLUMN(ModusNLB!$A$22)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="E12">
+        <f t="array" ref="E12">IFERROR(INDEX(ModusNLB!$A$23:$V$23,SMALL(IF(ModusNLB!$A$23:$V$23&lt;&gt;"",COLUMN(ModusNLB!$A$23:$V$23)-COLUMN(ModusNLB!$A$23)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="F12">
+        <f t="array" ref="F12">IFERROR(INDEX(ModusNLB!$A$24:$V$24,SMALL(IF(ModusNLB!$A$24:$V$24&lt;&gt;"",COLUMN(ModusNLB!$A$24:$V$24)-COLUMN(ModusNLB!$A$24)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="G12">
+        <f t="array" ref="G12">IFERROR(INDEX(ModusNLB!$A$25:$V$25,SMALL(IF(ModusNLB!$A$25:$V$25&lt;&gt;"",COLUMN(ModusNLB!$A$25:$V$25)-COLUMN(ModusNLB!$A$25)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="H12">
+        <f t="array" ref="H12">IFERROR(INDEX(ModusNLB!$A$26:$V$26,SMALL(IF(ModusNLB!$A$26:$V$26&lt;&gt;"",COLUMN(ModusNLB!$A$26:$V$26)-COLUMN(ModusNLB!$A$26)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="I12">
+        <f t="array" ref="I12">IFERROR(INDEX(ModusNLB!$A$27:$V$27,SMALL(IF(ModusNLB!$A$27:$V$27&lt;&gt;"",COLUMN(ModusNLB!$A$27:$V$27)-COLUMN(ModusNLB!$A$27)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="J12">
+        <f t="array" ref="J12">IFERROR(INDEX(ModusNLB!$A$28:$V$28,SMALL(IF(ModusNLB!$A$28:$V$28&lt;&gt;"",COLUMN(ModusNLB!$A$28:$V$28)-COLUMN(ModusNLB!$A$28)+1),ROW(A11))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="K12">
+        <f t="array" ref="K12">IFERROR(INDEX(ModusNLB!$A$29:$V$29,SMALL(IF(ModusNLB!$A$29:$V$29&lt;&gt;"",COLUMN(ModusNLB!$A$29:$V$29)-COLUMN(ModusNLB!$A$29)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="L12">
+        <f t="array" ref="L12">IFERROR(INDEX(ModusNLB!$A$30:$V$30,SMALL(IF(ModusNLB!$A$30:$V$30&lt;&gt;"",COLUMN(ModusNLB!$A$30:$V$30)-COLUMN(ModusNLB!$A$30)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
       </c>
     </row>
   </sheetData>
@@ -1027,18 +1515,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F21F9E6-4EFF-4B3D-9C54-B127386B1D15}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,59 +1564,554 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A13" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A14" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A15" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="A16" ca="1">IFERROR(INDEX(ModusNLB!$A$19:$V$19,KLEINSTE(IF(ModusNLB!$A$19:$V$19&lt;&gt;"",COLUMN(ModusNLB!$A$19:$V$19)-COLUMN(ModusNLB!$A$19)+1),ROW()-1)),"")</f>
-        <v/>
+    <row r="2" spans="1:12">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="C2">
+        <f t="array" ref="C2">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="D2">
+        <f t="array" ref="D2">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="E2">
+        <f t="array" ref="E2">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="F2">
+        <f t="array" ref="F2">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="G2">
+        <f t="array" ref="G2">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="I2">
+        <f t="array" ref="I2">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="J2">
+        <f t="array" ref="J2">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A1))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="K2">
+        <f t="array" ref="K2">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A1))),"")</f>
+        <v>20220924</v>
+      </c>
+      <c r="L2">
+        <f t="array" ref="L2">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A1))),"")</f>
+        <v>20221001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" cm="1">
+        <f t="array" ref="A3">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A2))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="B3" cm="1">
+        <f t="array" ref="B3">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="C3">
+        <f t="array" ref="C3">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A2))),"")</f>
+        <v>20221001</v>
+      </c>
+      <c r="D3">
+        <f t="array" ref="D3">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A2))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="E3">
+        <f t="array" ref="E3">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A2))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="F3">
+        <f t="array" ref="F3">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="G3">
+        <f t="array" ref="G3">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="H3">
+        <f t="array" ref="H3">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="I3">
+        <f t="array" ref="I3">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A2))),"")</f>
+        <v>20221002</v>
+      </c>
+      <c r="J3">
+        <f t="array" ref="J3">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A2))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="K3">
+        <f t="array" ref="K3">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A2))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="L3">
+        <f t="array" ref="L3">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A2))),"")</f>
+        <v>20221015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" cm="1">
+        <f t="array" ref="A4">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A3))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="B4" cm="1">
+        <f t="array" ref="B4">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B3))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="C4">
+        <f t="array" ref="C4">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A3))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="D4">
+        <f t="array" ref="D4">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A3))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="E4">
+        <f t="array" ref="E4">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A3))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="F4">
+        <f t="array" ref="F4">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A3))),"")</f>
+        <v>20221015</v>
+      </c>
+      <c r="G4">
+        <f t="array" ref="G4">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A3))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="H4">
+        <f t="array" ref="H4">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A3))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="I4">
+        <f t="array" ref="I4">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A3))),"")</f>
+        <v>20221008</v>
+      </c>
+      <c r="J4">
+        <f t="array" ref="J4">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A3))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="K4">
+        <f t="array" ref="K4">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A3))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="L4">
+        <f t="array" ref="L4">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A3))),"")</f>
+        <v>20221029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" cm="1">
+        <f t="array" ref="A5">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A4))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B4))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="C5">
+        <f t="array" ref="C5">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A4))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="D5">
+        <f t="array" ref="D5">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A4))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="E5">
+        <f t="array" ref="E5">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A4))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="F5">
+        <f t="array" ref="F5">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A4))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="G5">
+        <f t="array" ref="G5">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A4))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="H5">
+        <f t="array" ref="H5">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A4))),"")</f>
+        <v>20221029</v>
+      </c>
+      <c r="I5">
+        <f t="array" ref="I5">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A4))),"")</f>
+        <v>20221022</v>
+      </c>
+      <c r="J5">
+        <f t="array" ref="J5">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A4))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="K5">
+        <f t="array" ref="K5">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A4))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="L5">
+        <f t="array" ref="L5">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A4))),"")</f>
+        <v>20221112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" cm="1">
+        <f t="array" ref="A6">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A5))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B5))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="C6">
+        <f t="array" ref="C6">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A5))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="D6">
+        <f t="array" ref="D6">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A5))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="E6">
+        <f t="array" ref="E6">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A5))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="F6">
+        <f t="array" ref="F6">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A5))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="G6">
+        <f t="array" ref="G6">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A5))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="H6">
+        <f t="array" ref="H6">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A5))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="I6">
+        <f t="array" ref="I6">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A5))),"")</f>
+        <v>20221105</v>
+      </c>
+      <c r="J6">
+        <f t="array" ref="J6">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A5))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="K6">
+        <f t="array" ref="K6">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A5))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="L6">
+        <f t="array" ref="L6">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A5))),"")</f>
+        <v>20221126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" cm="1">
+        <f t="array" ref="A7">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A6))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B6))),"")</f>
+        <v>20221112</v>
+      </c>
+      <c r="C7">
+        <f t="array" ref="C7">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A6))),"")</f>
+        <v>20221119</v>
+      </c>
+      <c r="D7">
+        <f t="array" ref="D7">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="E7">
+        <f t="array" ref="E7">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A6))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="F7">
+        <f t="array" ref="F7">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="G7">
+        <f t="array" ref="G7">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A6))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="H7">
+        <f t="array" ref="H7">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="I7">
+        <f t="array" ref="I7">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A6))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="J7">
+        <f t="array" ref="J7">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="K7">
+        <f t="array" ref="K7">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A6))),"")</f>
+        <v>20221126</v>
+      </c>
+      <c r="L7">
+        <f t="array" ref="L7">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A6))),"")</f>
+        <v>20221203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" cm="1">
+        <f t="array" ref="A8">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B7))),"")</f>
+        <v>20221203</v>
+      </c>
+      <c r="C8">
+        <f t="array" ref="C8">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A7))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="D8">
+        <f t="array" ref="D8">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A7))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="E8">
+        <f t="array" ref="E8">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="F8">
+        <f t="array" ref="F8">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A7))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="G8">
+        <f t="array" ref="G8">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A7))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="H8">
+        <f t="array" ref="H8">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A7))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="I8">
+        <f t="array" ref="I8">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="J8">
+        <f t="array" ref="J8">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="K8">
+        <f t="array" ref="K8">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A7))),"")</f>
+        <v>20221210</v>
+      </c>
+      <c r="L8">
+        <f t="array" ref="L8">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A7))),"")</f>
+        <v>20221217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" cm="1">
+        <f t="array" ref="A9">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A8))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B8))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="C9">
+        <f t="array" ref="C9">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="D9">
+        <f t="array" ref="D9">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A8))),"")</f>
+        <v>20230107</v>
+      </c>
+      <c r="E9">
+        <f t="array" ref="E9">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A8))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="F9">
+        <f t="array" ref="F9">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A8))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="G9">
+        <f t="array" ref="G9">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="H9">
+        <f t="array" ref="H9">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="I9">
+        <f t="array" ref="I9">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="J9">
+        <f t="array" ref="J9">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A8))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="K9">
+        <f t="array" ref="K9">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A8))),"")</f>
+        <v>20221217</v>
+      </c>
+      <c r="L9">
+        <f t="array" ref="L9">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A8))),"")</f>
+        <v>20230107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" cm="1">
+        <f t="array" ref="A10">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="B10" cm="1">
+        <f t="array" ref="B10">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="C10">
+        <f t="array" ref="C10">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="D10">
+        <f t="array" ref="D10">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="E10">
+        <f t="array" ref="E10">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="F10">
+        <f t="array" ref="F10">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="G10">
+        <f t="array" ref="G10">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="H10">
+        <f t="array" ref="H10">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A9))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="I10">
+        <f t="array" ref="I10">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A9))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="J10">
+        <f t="array" ref="J10">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+      <c r="K10">
+        <f t="array" ref="K10">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A9))),"")</f>
+        <v>20230114</v>
+      </c>
+      <c r="L10">
+        <f t="array" ref="L10">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A9))),"")</f>
+        <v>20230121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" cm="1">
+        <f t="array" ref="A11">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B10))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="C11">
+        <f t="array" ref="C11">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="D11">
+        <f t="array" ref="D11">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="E11">
+        <f t="array" ref="E11">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="F11">
+        <f t="array" ref="F11">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="G11">
+        <f t="array" ref="G11">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="H11">
+        <f t="array" ref="H11">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="I11">
+        <f t="array" ref="I11">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A10))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="J11">
+        <f t="array" ref="J11">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+      <c r="K11">
+        <f t="array" ref="K11">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A10))),"")</f>
+        <v>20230128</v>
+      </c>
+      <c r="L11">
+        <f t="array" ref="L11">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A10))),"")</f>
+        <v>20230204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" cm="1">
+        <f t="array" ref="A12">IFERROR(INDEX(Modus1L!$A$19:$V$19,SMALL(IF(Modus1L!$A$19:$V$19&lt;&gt;"",COLUMN(Modus1L!$A$19:$V$19)-COLUMN(Modus1L!$A$19)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="B12" cm="1">
+        <f t="array" ref="B12">IFERROR(INDEX(Modus1L!$A$20:$V$20,SMALL(IF(Modus1L!$A$20:$V$20&lt;&gt;"",COLUMN(Modus1L!$A$20:$V$20)-COLUMN(Modus1L!$A$20)+1),ROW(B11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="C12">
+        <f t="array" ref="C12">IFERROR(INDEX(Modus1L!$A$21:$V$21,SMALL(IF(Modus1L!$A$21:$V$21&lt;&gt;"",COLUMN(Modus1L!$A$21:$V$21)-COLUMN(Modus1L!$A$21)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="D12">
+        <f t="array" ref="D12">IFERROR(INDEX(Modus1L!$A$22:$V$22,SMALL(IF(Modus1L!$A$22:$V$22&lt;&gt;"",COLUMN(Modus1L!$A$22:$V$22)-COLUMN(Modus1L!$A$22)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="E12">
+        <f t="array" ref="E12">IFERROR(INDEX(Modus1L!$A$23:$V$23,SMALL(IF(Modus1L!$A$23:$V$23&lt;&gt;"",COLUMN(Modus1L!$A$23:$V$23)-COLUMN(Modus1L!$A$23)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="F12">
+        <f t="array" ref="F12">IFERROR(INDEX(Modus1L!$A$24:$V$24,SMALL(IF(Modus1L!$A$24:$V$24&lt;&gt;"",COLUMN(Modus1L!$A$24:$V$24)-COLUMN(Modus1L!$A$24)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="G12">
+        <f t="array" ref="G12">IFERROR(INDEX(Modus1L!$A$25:$V$25,SMALL(IF(Modus1L!$A$25:$V$25&lt;&gt;"",COLUMN(Modus1L!$A$25:$V$25)-COLUMN(Modus1L!$A$25)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="H12">
+        <f t="array" ref="H12">IFERROR(INDEX(Modus1L!$A$26:$V$26,SMALL(IF(Modus1L!$A$26:$V$26&lt;&gt;"",COLUMN(Modus1L!$A$26:$V$26)-COLUMN(Modus1L!$A$26)+1),ROW(A11))),"")</f>
+        <v>20230225</v>
+      </c>
+      <c r="I12">
+        <f t="array" ref="I12">IFERROR(INDEX(Modus1L!$A$27:$V$27,SMALL(IF(Modus1L!$A$27:$V$27&lt;&gt;"",COLUMN(Modus1L!$A$27:$V$27)-COLUMN(Modus1L!$A$27)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="J12">
+        <f t="array" ref="J12">IFERROR(INDEX(Modus1L!$A$28:$V$28,SMALL(IF(Modus1L!$A$28:$V$28&lt;&gt;"",COLUMN(Modus1L!$A$28:$V$28)-COLUMN(Modus1L!$A$28)+1),ROW(A11))),"")</f>
+        <v>20230211</v>
+      </c>
+      <c r="K12">
+        <f t="array" ref="K12">IFERROR(INDEX(Modus1L!$A$29:$V$29,SMALL(IF(Modus1L!$A$29:$V$29&lt;&gt;"",COLUMN(Modus1L!$A$29:$V$29)-COLUMN(Modus1L!$A$29)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
+      </c>
+      <c r="L12">
+        <f t="array" ref="L12">IFERROR(INDEX(Modus1L!$A$30:$V$30,SMALL(IF(Modus1L!$A$30:$V$30&lt;&gt;"",COLUMN(Modus1L!$A$30:$V$30)-COLUMN(Modus1L!$A$30)+1),ROW(A11))),"")</f>
+        <v>20230218</v>
       </c>
     </row>
   </sheetData>
@@ -1139,19 +2122,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD39499-3509-4031-9A8D-8B8C1731004B}">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="22" width="15.7109375" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="8">
         <v>20220924</v>
       </c>
@@ -1219,7 +2202,7 @@
         <v>20230225</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="12" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +2270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="12" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1355,7 +2338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="12" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1423,7 +2406,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="12" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1491,7 +2474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="12" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -1559,7 +2542,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="12" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -1627,15 +2610,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="12" customHeight="1"/>
+    <row r="9" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="3" t="str">
         <f>LEFT(A2,2)</f>
         <v xml:space="preserve">1 </v>
@@ -1725,7 +2708,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="3" t="str">
         <f t="shared" ref="A11:K15" si="3">LEFT(A3,2)</f>
         <v xml:space="preserve">3 </v>
@@ -1815,7 +2798,7 @@
         <v xml:space="preserve">2 </v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">5 </v>
@@ -1905,7 +2888,7 @@
         <v xml:space="preserve">3 </v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">7 </v>
@@ -1995,7 +2978,7 @@
         <v xml:space="preserve">6 </v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">9 </v>
@@ -2085,7 +3068,7 @@
         <v xml:space="preserve">7 </v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2175,32 +3158,32 @@
         <v xml:space="preserve">8 </v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="12.75" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="10">
-        <f>IF(COUNTIF(A$10:A$15, $A41)&gt;0, A$1, "")</f>
+        <f t="shared" ref="A19:V19" si="13">IF(COUNTIF(A$10:A$15, $A40)&gt;0, A$1, "")</f>
         <v>20220924</v>
       </c>
       <c r="B19" s="10" t="str">
-        <f t="shared" ref="B19:D19" si="13">IF(COUNTIF(B$10:B$15, $A41)&gt;0, B$1, "")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C19" s="10" t="str">
@@ -2212,1155 +3195,1159 @@
         <v>20221008</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" ref="E19:V19" si="14">IF(COUNTIF(E$10:E$15, $A41)&gt;0, E$1, "")</f>
+        <f t="shared" si="13"/>
         <v>20221015</v>
       </c>
       <c r="F19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="13"/>
+        <v>20221029</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="13"/>
+        <v>20221112</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="13"/>
+        <v>20221119</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="13"/>
+        <v>20221210</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="13"/>
+        <v>20221217</v>
+      </c>
+      <c r="O19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="13"/>
+        <v>20230121</v>
+      </c>
+      <c r="R19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="13"/>
+        <v>20230204</v>
+      </c>
+      <c r="T19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="U19" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="13"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A20" s="10" t="str">
+        <f t="shared" ref="A20:V20" si="14">IF(COUNTIF(A$10:A$15, $A41)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B20" s="10">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G19" s="10">
+        <v>20221001</v>
+      </c>
+      <c r="C20" s="10">
         <f t="shared" si="14"/>
-        <v>20221029</v>
-      </c>
-      <c r="H19" s="10" t="str">
+        <v>20221002</v>
+      </c>
+      <c r="D20" s="10" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="I19" s="10">
+      <c r="E20" s="10">
+        <f t="shared" si="14"/>
+        <v>20221015</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="14"/>
+        <v>20221022</v>
+      </c>
+      <c r="G20" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="14"/>
+        <v>20221105</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="14"/>
         <v>20221112</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J20" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>20221119</v>
-      </c>
-      <c r="K19" s="10" t="str">
+        <v/>
+      </c>
+      <c r="K20" s="10" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="L19" s="10" t="str">
+      <c r="L20" s="10">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M19" s="10">
+        <v>20221203</v>
+      </c>
+      <c r="M20" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>20221210</v>
-      </c>
-      <c r="N19" s="10">
+        <v/>
+      </c>
+      <c r="N20" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>20221217</v>
-      </c>
-      <c r="O19" s="10" t="str">
+        <v/>
+      </c>
+      <c r="O20" s="10">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="P19" s="10" t="str">
+        <v>20230107</v>
+      </c>
+      <c r="P20" s="10" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q20" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>20230121</v>
-      </c>
-      <c r="R19" s="10" t="str">
+        <v/>
+      </c>
+      <c r="R20" s="10">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S19" s="10">
+        <v>20230128</v>
+      </c>
+      <c r="S20" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>20230204</v>
-      </c>
-      <c r="T19" s="10" t="str">
+        <v/>
+      </c>
+      <c r="T20" s="10" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="U19" s="10" t="str">
+      <c r="U20" s="10">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="V19" s="10">
+        <v>20230218</v>
+      </c>
+      <c r="V20" s="10">
         <f t="shared" si="14"/>
         <v>20230225</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="str">
-        <f>IF(COUNTIF(A$10:A$15, $A42)&gt;0, A$1, "")</f>
-        <v/>
-      </c>
-      <c r="B20" s="10">
-        <f t="shared" ref="B20:D20" si="15">IF(COUNTIF(B$10:B$15, $A42)&gt;0, B$1, "")</f>
+    <row r="21" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A21" s="10">
+        <f t="shared" ref="A21:V21" si="15">IF(COUNTIF(A$10:A$15, $A42)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="15"/>
         <v>20221001</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C21" s="10" t="str">
         <f t="shared" si="15"/>
-        <v>20221002</v>
-      </c>
-      <c r="D20" s="10" t="str">
+        <v/>
+      </c>
+      <c r="D21" s="10">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" ref="E20:V20" si="16">IF(COUNTIF(E$10:E$15, $A42)&gt;0, E$1, "")</f>
+        <v>20221008</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="15"/>
+        <v>20221029</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="15"/>
+        <v>20221112</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="15"/>
+        <v>20221119</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="15"/>
+        <v>20221217</v>
+      </c>
+      <c r="O21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="15"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="15"/>
+        <v>20230121</v>
+      </c>
+      <c r="R21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="15"/>
+        <v>20230204</v>
+      </c>
+      <c r="T21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U21" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="V21" s="10">
+        <f t="shared" si="15"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="10" t="str">
+        <f t="shared" ref="A22:V22" si="16">IF(COUNTIF(A$10:A$15, $A43)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="16"/>
+        <v>20221001</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="16"/>
         <v>20221015</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F22" s="10">
         <f t="shared" si="16"/>
         <v>20221022</v>
       </c>
-      <c r="G20" s="10" t="str">
+      <c r="G22" s="10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H20" s="10">
+      <c r="H22" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>20221105</v>
-      </c>
-      <c r="I20" s="10">
+        <v/>
+      </c>
+      <c r="I22" s="10">
         <f t="shared" si="16"/>
         <v>20221112</v>
       </c>
-      <c r="J20" s="10" t="str">
+      <c r="J22" s="10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="K20" s="10" t="str">
+      <c r="K22" s="10">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L20" s="10">
+        <v>20221126</v>
+      </c>
+      <c r="L22" s="10">
         <f t="shared" si="16"/>
         <v>20221203</v>
       </c>
-      <c r="M20" s="10" t="str">
+      <c r="M22" s="10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N20" s="10" t="str">
+      <c r="N22" s="10">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O20" s="10">
+        <v>20221217</v>
+      </c>
+      <c r="O22" s="10">
         <f t="shared" si="16"/>
         <v>20230107</v>
       </c>
-      <c r="P20" s="10" t="str">
+      <c r="P22" s="10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="Q20" s="10" t="str">
+      <c r="Q22" s="10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="R20" s="10">
+      <c r="R22" s="10">
         <f t="shared" si="16"/>
         <v>20230128</v>
       </c>
-      <c r="S20" s="10" t="str">
+      <c r="S22" s="10">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="T20" s="10" t="str">
+        <v>20230204</v>
+      </c>
+      <c r="T22" s="10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="U20" s="10">
+      <c r="U22" s="10">
         <f t="shared" si="16"/>
         <v>20230218</v>
       </c>
-      <c r="V20" s="10">
+      <c r="V22" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>20230225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <f t="shared" ref="A21:C29" si="17">IF(COUNTIF(A$10:A$15, $A43)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="10">
+        <f t="shared" ref="A23:V23" si="17">IF(COUNTIF(A$10:A$15, $A44)&gt;0, A$1, "")</f>
         <v>20220924</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B23" s="10" t="str">
         <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="17"/>
+        <v>20221008</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="17"/>
+        <v>20221015</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="17"/>
+        <v>20221029</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="17"/>
+        <v>20221105</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="17"/>
+        <v>20221126</v>
+      </c>
+      <c r="L23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="17"/>
+        <v>20221210</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="17"/>
+        <v>20221217</v>
+      </c>
+      <c r="O23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="17"/>
+        <v>20230121</v>
+      </c>
+      <c r="R23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="17"/>
+        <v>20230211</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" si="17"/>
+        <v>20230218</v>
+      </c>
+      <c r="V23" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="10" t="str">
+        <f t="shared" ref="A24:V24" si="18">IF(COUNTIF(A$10:A$15, $A45)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B24" s="10">
+        <f t="shared" si="18"/>
         <v>20221001</v>
       </c>
-      <c r="C21" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" ref="D21:V21" si="18">IF(COUNTIF(D$10:D$15, $A43)&gt;0, D$1, "")</f>
-        <v>20221008</v>
-      </c>
-      <c r="E21" s="10" t="str">
+      <c r="C24" s="10">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F21" s="10" t="str">
+        <v>20221002</v>
+      </c>
+      <c r="D24" s="10" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="G21" s="10">
+      <c r="E24" s="10">
         <f t="shared" si="18"/>
-        <v>20221029</v>
-      </c>
-      <c r="H21" s="10" t="str">
+        <v>20221015</v>
+      </c>
+      <c r="F24" s="10" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I21" s="10">
+      <c r="G24" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>20221112</v>
-      </c>
-      <c r="J21" s="10">
+        <v/>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="18"/>
+        <v>20221105</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J24" s="10">
         <f t="shared" si="18"/>
         <v>20221119</v>
       </c>
-      <c r="K21" s="10" t="str">
+      <c r="K24" s="10" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L21" s="10" t="str">
+      <c r="L24" s="10">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M21" s="10" t="str">
+        <v>20221203</v>
+      </c>
+      <c r="M24" s="10" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="N21" s="10">
+      <c r="N24" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>20221217</v>
-      </c>
-      <c r="O21" s="10" t="str">
+        <v/>
+      </c>
+      <c r="O24" s="10">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="P21" s="10">
+        <v>20230107</v>
+      </c>
+      <c r="P24" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>20230114</v>
-      </c>
-      <c r="Q21" s="10">
+        <v/>
+      </c>
+      <c r="Q24" s="10">
         <f t="shared" si="18"/>
         <v>20230121</v>
       </c>
-      <c r="R21" s="10" t="str">
+      <c r="R24" s="10">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="S21" s="10">
+        <v>20230128</v>
+      </c>
+      <c r="S24" s="10" t="str">
         <f t="shared" si="18"/>
-        <v>20230204</v>
-      </c>
-      <c r="T21" s="10" t="str">
+        <v/>
+      </c>
+      <c r="T24" s="10">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="U21" s="10" t="str">
+        <v>20230211</v>
+      </c>
+      <c r="U24" s="10" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="V21" s="10">
+      <c r="V24" s="10">
         <f t="shared" si="18"/>
         <v>20230225</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B22" s="10">
-        <f t="shared" si="17"/>
-        <v>20221001</v>
-      </c>
-      <c r="C22" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="D22" s="10" t="str">
-        <f t="shared" ref="D22:V22" si="19">IF(COUNTIF(D$10:D$15, $A44)&gt;0, D$1, "")</f>
-        <v/>
-      </c>
-      <c r="E22" s="10">
+    <row r="25" spans="1:22">
+      <c r="A25" s="10">
+        <f t="shared" ref="A25:V25" si="19">IF(COUNTIF(A$10:A$15, $A46)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B25" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>20221015</v>
-      </c>
-      <c r="F22" s="10">
+        <v/>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="19"/>
+        <v>20221002</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F25" s="10">
         <f t="shared" si="19"/>
         <v>20221022</v>
       </c>
-      <c r="G22" s="10" t="str">
+      <c r="G25" s="10" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="H22" s="10" t="str">
+      <c r="H25" s="10">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I22" s="10">
+        <v>20221105</v>
+      </c>
+      <c r="I25" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>20221112</v>
-      </c>
-      <c r="J22" s="10" t="str">
+        <v/>
+      </c>
+      <c r="J25" s="10">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K22" s="10">
+        <v>20221119</v>
+      </c>
+      <c r="K25" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>20221126</v>
-      </c>
-      <c r="L22" s="10">
+        <v/>
+      </c>
+      <c r="L25" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>20221203</v>
-      </c>
-      <c r="M22" s="10" t="str">
+        <v/>
+      </c>
+      <c r="M25" s="10">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N22" s="10">
+        <v>20221210</v>
+      </c>
+      <c r="N25" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>20221217</v>
-      </c>
-      <c r="O22" s="10">
+        <v/>
+      </c>
+      <c r="O25" s="10">
         <f t="shared" si="19"/>
         <v>20230107</v>
       </c>
-      <c r="P22" s="10" t="str">
+      <c r="P25" s="10">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q22" s="10" t="str">
+        <v>20230114</v>
+      </c>
+      <c r="Q25" s="10" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="R22" s="10">
+      <c r="R25" s="10">
         <f t="shared" si="19"/>
         <v>20230128</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S25" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>20230204</v>
-      </c>
-      <c r="T22" s="10" t="str">
+        <v/>
+      </c>
+      <c r="T25" s="10">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="U22" s="10">
+        <v>20230211</v>
+      </c>
+      <c r="U25" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>20230218</v>
-      </c>
-      <c r="V22" s="10" t="str">
+        <v/>
+      </c>
+      <c r="V25" s="10">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <f t="shared" si="17"/>
-        <v>20220924</v>
-      </c>
-      <c r="B23" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C23" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" ref="D23:V23" si="20">IF(COUNTIF(D$10:D$15, $A45)&gt;0, D$1, "")</f>
-        <v>20221008</v>
-      </c>
-      <c r="E23" s="10">
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="10" t="str">
+        <f t="shared" ref="A26:V26" si="20">IF(COUNTIF(A$10:A$15, $A47)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B26" s="10">
         <f t="shared" si="20"/>
-        <v>20221015</v>
-      </c>
-      <c r="F23" s="10" t="str">
+        <v>20221001</v>
+      </c>
+      <c r="C26" s="10">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G23" s="10">
+        <v>20221002</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="20"/>
+        <v>20221022</v>
+      </c>
+      <c r="G26" s="10">
         <f t="shared" si="20"/>
         <v>20221029</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H26" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>20221105</v>
-      </c>
-      <c r="I23" s="10" t="str">
+        <v/>
+      </c>
+      <c r="I26" s="10" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J26" s="10">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K23" s="10">
+        <v>20221119</v>
+      </c>
+      <c r="K26" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>20221126</v>
-      </c>
-      <c r="L23" s="10" t="str">
+        <v/>
+      </c>
+      <c r="L26" s="10">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M23" s="10">
+        <v>20221203</v>
+      </c>
+      <c r="M26" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>20221210</v>
-      </c>
-      <c r="N23" s="10">
+        <v/>
+      </c>
+      <c r="N26" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>20221217</v>
-      </c>
-      <c r="O23" s="10" t="str">
+        <v/>
+      </c>
+      <c r="O26" s="10">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P23" s="10" t="str">
+        <v>20230107</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q23" s="10">
+        <v>20230114</v>
+      </c>
+      <c r="Q26" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>20230121</v>
-      </c>
-      <c r="R23" s="10" t="str">
+        <v/>
+      </c>
+      <c r="R26" s="10" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="S23" s="10" t="str">
+      <c r="S26" s="10">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T23" s="10">
+        <v>20230204</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="20"/>
         <v>20230211</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U26" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>20230218</v>
-      </c>
-      <c r="V23" s="10" t="str">
+        <v/>
+      </c>
+      <c r="V26" s="10">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B24" s="10">
-        <f t="shared" si="17"/>
-        <v>20221001</v>
-      </c>
-      <c r="C24" s="10">
-        <f t="shared" si="17"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="10">
+        <f t="shared" ref="A27:V27" si="21">IF(COUNTIF(A$10:A$15, $A48)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="21"/>
         <v>20221002</v>
       </c>
-      <c r="D24" s="10" t="str">
-        <f t="shared" ref="D24:V24" si="21">IF(COUNTIF(D$10:D$15, $A46)&gt;0, D$1, "")</f>
-        <v/>
-      </c>
-      <c r="E24" s="10">
+      <c r="D27" s="10">
         <f t="shared" si="21"/>
-        <v>20221015</v>
-      </c>
-      <c r="F24" s="10" t="str">
+        <v>20221008</v>
+      </c>
+      <c r="E27" s="10" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="G24" s="10" t="str">
+      <c r="F27" s="10">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="H24" s="10">
+        <v>20221022</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="H27" s="10">
         <f t="shared" si="21"/>
         <v>20221105</v>
       </c>
-      <c r="I24" s="10" t="str">
+      <c r="I27" s="10" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J24" s="10">
+      <c r="J27" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>20221119</v>
-      </c>
-      <c r="K24" s="10" t="str">
+        <v/>
+      </c>
+      <c r="K27" s="10">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L24" s="10">
+        <v>20221126</v>
+      </c>
+      <c r="L27" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>20221203</v>
-      </c>
-      <c r="M24" s="10" t="str">
+        <v/>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N24" s="10" t="str">
+        <v>20221210</v>
+      </c>
+      <c r="N27" s="10" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="O24" s="10">
+      <c r="O27" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>20230107</v>
-      </c>
-      <c r="P24" s="10" t="str">
+        <v/>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q24" s="10">
+        <v>20230114</v>
+      </c>
+      <c r="Q27" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>20230121</v>
-      </c>
-      <c r="R24" s="10">
+        <v/>
+      </c>
+      <c r="R27" s="10">
         <f t="shared" si="21"/>
         <v>20230128</v>
       </c>
-      <c r="S24" s="10" t="str">
+      <c r="S27" s="10" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="T24" s="10">
+      <c r="T27" s="10">
         <f t="shared" si="21"/>
         <v>20230211</v>
       </c>
-      <c r="U24" s="10" t="str">
+      <c r="U27" s="10">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="V24" s="10">
+        <v>20230218</v>
+      </c>
+      <c r="V27" s="10" t="str">
         <f t="shared" si="21"/>
-        <v>20230225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <f t="shared" si="17"/>
-        <v>20220924</v>
-      </c>
-      <c r="B25" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C25" s="10">
-        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="10" t="str">
+        <f t="shared" ref="A28:V28" si="22">IF(COUNTIF(A$10:A$15, $A49)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="22"/>
         <v>20221002</v>
       </c>
-      <c r="D25" s="10" t="str">
-        <f t="shared" ref="D25:V25" si="22">IF(COUNTIF(D$10:D$15, $A47)&gt;0, D$1, "")</f>
-        <v/>
-      </c>
-      <c r="E25" s="10" t="str">
+      <c r="D28" s="10">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F25" s="10">
+        <v>20221008</v>
+      </c>
+      <c r="E28" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>20221022</v>
-      </c>
-      <c r="G25" s="10" t="str">
+        <v/>
+      </c>
+      <c r="F28" s="10" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H25" s="10">
+      <c r="G28" s="10">
         <f t="shared" si="22"/>
-        <v>20221105</v>
-      </c>
-      <c r="I25" s="10" t="str">
+        <v>20221029</v>
+      </c>
+      <c r="H28" s="10" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="J25" s="10">
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J28" s="10">
         <f t="shared" si="22"/>
         <v>20221119</v>
       </c>
-      <c r="K25" s="10" t="str">
+      <c r="K28" s="10">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L25" s="10" t="str">
+        <v>20221126</v>
+      </c>
+      <c r="L28" s="10">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M25" s="10">
+        <v>20221203</v>
+      </c>
+      <c r="M28" s="10">
         <f t="shared" si="22"/>
         <v>20221210</v>
       </c>
-      <c r="N25" s="10" t="str">
+      <c r="N28" s="10" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="O25" s="10">
+      <c r="O28" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>20230107</v>
-      </c>
-      <c r="P25" s="10">
+        <v/>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="22"/>
         <v>20230114</v>
       </c>
-      <c r="Q25" s="10" t="str">
+      <c r="Q28" s="10">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="R25" s="10">
+        <v>20230121</v>
+      </c>
+      <c r="R28" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>20230128</v>
-      </c>
-      <c r="S25" s="10" t="str">
+        <v/>
+      </c>
+      <c r="S28" s="10">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="T25" s="10">
+        <v>20230204</v>
+      </c>
+      <c r="T28" s="10">
         <f t="shared" si="22"/>
         <v>20230211</v>
       </c>
-      <c r="U25" s="10" t="str">
+      <c r="U28" s="10" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="V25" s="10">
+      <c r="V28" s="10" t="str">
         <f t="shared" si="22"/>
-        <v>20230225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B26" s="10">
-        <f t="shared" si="17"/>
-        <v>20221001</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" si="17"/>
-        <v>20221002</v>
-      </c>
-      <c r="D26" s="10" t="str">
-        <f t="shared" ref="D26:V26" si="23">IF(COUNTIF(D$10:D$15, $A48)&gt;0, D$1, "")</f>
-        <v/>
-      </c>
-      <c r="E26" s="10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="10">
+        <f t="shared" ref="A29:V29" si="23">IF(COUNTIF(A$10:A$15, $A50)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B29" s="10" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="F26" s="10">
+      <c r="C29" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="23"/>
+        <v>20221008</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="F29" s="10">
         <f t="shared" si="23"/>
         <v>20221022</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G29" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>20221029</v>
-      </c>
-      <c r="H26" s="10" t="str">
+        <v/>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="I26" s="10" t="str">
+        <v>20221105</v>
+      </c>
+      <c r="I29" s="10">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="J26" s="10">
+        <v>20221112</v>
+      </c>
+      <c r="J29" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>20221119</v>
-      </c>
-      <c r="K26" s="10" t="str">
+        <v/>
+      </c>
+      <c r="K29" s="10">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="L26" s="10">
+        <v>20221126</v>
+      </c>
+      <c r="L29" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>20221203</v>
-      </c>
-      <c r="M26" s="10" t="str">
+        <v/>
+      </c>
+      <c r="M29" s="10">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N26" s="10" t="str">
+        <v>20221210</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O26" s="10">
+        <v>20221217</v>
+      </c>
+      <c r="O29" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>20230107</v>
-      </c>
-      <c r="P26" s="10">
+        <v/>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="23"/>
         <v>20230114</v>
       </c>
-      <c r="Q26" s="10" t="str">
+      <c r="Q29" s="10" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="R26" s="10" t="str">
+      <c r="R29" s="10">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="S26" s="10">
+        <v>20230128</v>
+      </c>
+      <c r="S29" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>20230204</v>
-      </c>
-      <c r="T26" s="10">
+        <v/>
+      </c>
+      <c r="T29" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>20230211</v>
-      </c>
-      <c r="U26" s="10" t="str">
+        <v/>
+      </c>
+      <c r="U29" s="10">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="V26" s="10">
+        <v>20230218</v>
+      </c>
+      <c r="V29" s="10" t="str">
         <f t="shared" si="23"/>
-        <v>20230225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <f t="shared" si="17"/>
-        <v>20220924</v>
-      </c>
-      <c r="B27" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" si="17"/>
-        <v>20221002</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" ref="D27:V27" si="24">IF(COUNTIF(D$10:D$15, $A49)&gt;0, D$1, "")</f>
-        <v>20221008</v>
-      </c>
-      <c r="E27" s="10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="10" t="str">
+        <f t="shared" ref="A30:V30" si="24">IF(COUNTIF(A$10:A$15, $A51)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B30" s="10">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="F27" s="10">
+        <v>20221001</v>
+      </c>
+      <c r="C30" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>20221022</v>
-      </c>
-      <c r="G27" s="10" t="str">
+        <v/>
+      </c>
+      <c r="D30" s="10" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="H27" s="10">
+      <c r="E30" s="10">
         <f t="shared" si="24"/>
-        <v>20221105</v>
-      </c>
-      <c r="I27" s="10" t="str">
+        <v>20221015</v>
+      </c>
+      <c r="F30" s="10" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J27" s="10" t="str">
+      <c r="G30" s="10">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="K27" s="10">
+        <v>20221029</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="24"/>
+        <v>20221112</v>
+      </c>
+      <c r="J30" s="10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K30" s="10">
         <f t="shared" si="24"/>
         <v>20221126</v>
       </c>
-      <c r="L27" s="10" t="str">
+      <c r="L30" s="10">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="M27" s="10">
+        <v>20221203</v>
+      </c>
+      <c r="M30" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>20221210</v>
-      </c>
-      <c r="N27" s="10" t="str">
+        <v/>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="O27" s="10" t="str">
+        <v>20221217</v>
+      </c>
+      <c r="O30" s="10">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="P27" s="10">
+        <v>20230107</v>
+      </c>
+      <c r="P30" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>20230114</v>
-      </c>
-      <c r="Q27" s="10" t="str">
+        <v/>
+      </c>
+      <c r="Q30" s="10">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R27" s="10">
+        <v>20230121</v>
+      </c>
+      <c r="R30" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>20230128</v>
-      </c>
-      <c r="S27" s="10" t="str">
+        <v/>
+      </c>
+      <c r="S30" s="10">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="T27" s="10">
+        <v>20230204</v>
+      </c>
+      <c r="T30" s="10" t="str">
         <f t="shared" si="24"/>
-        <v>20230211</v>
-      </c>
-      <c r="U27" s="10">
+        <v/>
+      </c>
+      <c r="U30" s="10">
         <f t="shared" si="24"/>
         <v>20230218</v>
       </c>
-      <c r="V27" s="10" t="str">
+      <c r="V30" s="10" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B28" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" si="17"/>
-        <v>20221002</v>
-      </c>
-      <c r="D28" s="10">
-        <f t="shared" ref="D28:V28" si="25">IF(COUNTIF(D$10:D$15, $A50)&gt;0, D$1, "")</f>
-        <v>20221008</v>
-      </c>
-      <c r="E28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="F28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G28" s="10">
-        <f t="shared" si="25"/>
-        <v>20221029</v>
-      </c>
-      <c r="H28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="J28" s="10">
-        <f t="shared" si="25"/>
-        <v>20221119</v>
-      </c>
-      <c r="K28" s="10">
-        <f t="shared" si="25"/>
-        <v>20221126</v>
-      </c>
-      <c r="L28" s="10">
-        <f t="shared" si="25"/>
-        <v>20221203</v>
-      </c>
-      <c r="M28" s="10">
-        <f t="shared" si="25"/>
-        <v>20221210</v>
-      </c>
-      <c r="N28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="25"/>
-        <v>20230114</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="25"/>
-        <v>20230121</v>
-      </c>
-      <c r="R28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="25"/>
-        <v>20230204</v>
-      </c>
-      <c r="T28" s="10">
-        <f t="shared" si="25"/>
-        <v>20230211</v>
-      </c>
-      <c r="U28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="V28" s="10" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <f t="shared" si="17"/>
-        <v>20220924</v>
-      </c>
-      <c r="B29" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C29" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="D29" s="10">
-        <f t="shared" ref="D29:V29" si="26">IF(COUNTIF(D$10:D$15, $A51)&gt;0, D$1, "")</f>
-        <v>20221008</v>
-      </c>
-      <c r="E29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="F29" s="10">
-        <f t="shared" si="26"/>
-        <v>20221022</v>
-      </c>
-      <c r="G29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="26"/>
-        <v>20221105</v>
-      </c>
-      <c r="I29" s="10">
-        <f t="shared" si="26"/>
-        <v>20221112</v>
-      </c>
-      <c r="J29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="K29" s="10">
-        <f t="shared" si="26"/>
-        <v>20221126</v>
-      </c>
-      <c r="L29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="26"/>
-        <v>20221210</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="26"/>
-        <v>20221217</v>
-      </c>
-      <c r="O29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="26"/>
-        <v>20230114</v>
-      </c>
-      <c r="Q29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R29" s="10">
-        <f t="shared" si="26"/>
-        <v>20230128</v>
-      </c>
-      <c r="S29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="T29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="U29" s="10">
-        <f t="shared" si="26"/>
-        <v>20230218</v>
-      </c>
-      <c r="V29" s="10" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="str">
-        <f>IF(COUNTIF(A$10:A$15, $A52)&gt;0, A$1, "")</f>
-        <v/>
-      </c>
-      <c r="B30" s="10">
-        <f t="shared" ref="B30:D30" si="27">IF(COUNTIF(B$10:B$15, $A52)&gt;0, B$1, "")</f>
-        <v>20221001</v>
-      </c>
-      <c r="C30" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D30" s="10" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" ref="E30:V30" si="28">IF(COUNTIF(E$10:E$15, $A52)&gt;0, E$1, "")</f>
-        <v>20221015</v>
-      </c>
-      <c r="F30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="G30" s="10">
-        <f t="shared" si="28"/>
-        <v>20221029</v>
-      </c>
-      <c r="H30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="I30" s="10">
-        <f t="shared" si="28"/>
-        <v>20221112</v>
-      </c>
-      <c r="J30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="K30" s="10">
-        <f t="shared" si="28"/>
-        <v>20221126</v>
-      </c>
-      <c r="L30" s="10">
-        <f t="shared" si="28"/>
-        <v>20221203</v>
-      </c>
-      <c r="M30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="28"/>
-        <v>20221217</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="28"/>
-        <v>20230107</v>
-      </c>
-      <c r="P30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q30" s="10">
-        <f t="shared" si="28"/>
-        <v>20230121</v>
-      </c>
-      <c r="R30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="S30" s="10">
-        <f t="shared" si="28"/>
-        <v>20230204</v>
-      </c>
-      <c r="T30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="U30" s="10">
-        <f t="shared" si="28"/>
-        <v>20230218</v>
-      </c>
-      <c r="V30" s="10" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" s="5" t="str">
-        <f t="shared" ref="A32" si="29">IF(COUNTIF($A$10:$A$15, 2)&gt;0, $A$1, "")</f>
+        <f t="shared" ref="A32" si="25">IF(COUNTIF($A$10:$A$15, 2)&gt;0, $A$1, "")</f>
         <v/>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3368,54 +4355,55 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
-        <v>7</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3424,23 +4412,24 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>12</v>
-      </c>
+    <row r="52" spans="1:11">
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3452,50 +4441,50 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3507,84 +4496,72 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3595,12 +4572,2449 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B7119F-7496-41EF-A8A8-0D4C2A0D5672}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="22" width="15.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="8">
+        <v>20220924</v>
+      </c>
+      <c r="B1" s="8">
+        <v>20221001</v>
+      </c>
+      <c r="C1" s="8">
+        <v>20221002</v>
+      </c>
+      <c r="D1" s="8">
+        <v>20221008</v>
+      </c>
+      <c r="E1" s="8">
+        <v>20221015</v>
+      </c>
+      <c r="F1" s="8">
+        <v>20221022</v>
+      </c>
+      <c r="G1" s="8">
+        <v>20221029</v>
+      </c>
+      <c r="H1" s="8">
+        <v>20221105</v>
+      </c>
+      <c r="I1" s="8">
+        <v>20221112</v>
+      </c>
+      <c r="J1" s="8">
+        <v>20221119</v>
+      </c>
+      <c r="K1" s="9">
+        <v>20221126</v>
+      </c>
+      <c r="L1" s="8">
+        <v>20221203</v>
+      </c>
+      <c r="M1" s="9">
+        <v>20221210</v>
+      </c>
+      <c r="N1" s="8">
+        <v>20221217</v>
+      </c>
+      <c r="O1" s="8">
+        <v>20230107</v>
+      </c>
+      <c r="P1" s="9">
+        <v>20230114</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>20230121</v>
+      </c>
+      <c r="R1" s="9">
+        <v>20230128</v>
+      </c>
+      <c r="S1" s="8">
+        <v>20230204</v>
+      </c>
+      <c r="T1" s="9">
+        <v>20230211</v>
+      </c>
+      <c r="U1" s="8">
+        <v>20230218</v>
+      </c>
+      <c r="V1" s="8">
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="12" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="12" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="12" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="12" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="12" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="12" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="12" customHeight="1"/>
+    <row r="9" spans="1:22">
+      <c r="A9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="3" t="str">
+        <f>LEFT(A2,2)</f>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" ref="B10:V15" si="0">LEFT(B2,2)</f>
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="N10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="O10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="P10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="Q10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="R10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="T10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="V10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="3" t="str">
+        <f t="shared" ref="A11:K15" si="1">LEFT(A3,2)</f>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="O11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="R11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="S11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="U11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="V11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="N12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="P12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="R12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="T12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="U12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="V12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="N13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="O13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="R13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="T13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="U13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="N14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="O14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4 </v>
+      </c>
+      <c r="P14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="Q14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="T14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="U14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="V14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">6 </v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">7 </v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A19" s="10">
+        <f t="shared" ref="A19:V19" si="2">IF(COUNTIF(A$10:A$15, $A40)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="2"/>
+        <v>20221008</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="2"/>
+        <v>20221015</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="2"/>
+        <v>20221029</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="2"/>
+        <v>20221112</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="2"/>
+        <v>20221119</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="2"/>
+        <v>20221210</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="2"/>
+        <v>20221217</v>
+      </c>
+      <c r="O19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="2"/>
+        <v>20230121</v>
+      </c>
+      <c r="R19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="2"/>
+        <v>20230204</v>
+      </c>
+      <c r="T19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="2"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A20" s="10" t="str">
+        <f t="shared" ref="A20:V20" si="3">IF(COUNTIF(A$10:A$15, $A41)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="3"/>
+        <v>20221001</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" si="3"/>
+        <v>20221002</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="3"/>
+        <v>20221015</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="3"/>
+        <v>20221022</v>
+      </c>
+      <c r="G20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="3"/>
+        <v>20221105</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="3"/>
+        <v>20221112</v>
+      </c>
+      <c r="J20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="3"/>
+        <v>20221203</v>
+      </c>
+      <c r="M20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="3"/>
+        <v>20230107</v>
+      </c>
+      <c r="P20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="3"/>
+        <v>20230128</v>
+      </c>
+      <c r="S20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" si="3"/>
+        <v>20230218</v>
+      </c>
+      <c r="V20" s="10">
+        <f t="shared" si="3"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="12.75" customHeight="1">
+      <c r="A21" s="10">
+        <f t="shared" ref="A21:V21" si="4">IF(COUNTIF(A$10:A$15, $A42)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="4"/>
+        <v>20221001</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="4"/>
+        <v>20221008</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="4"/>
+        <v>20221029</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="4"/>
+        <v>20221112</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="4"/>
+        <v>20221119</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>20221217</v>
+      </c>
+      <c r="O21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="4"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="4"/>
+        <v>20230121</v>
+      </c>
+      <c r="R21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="4"/>
+        <v>20230204</v>
+      </c>
+      <c r="T21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V21" s="10">
+        <f t="shared" si="4"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="10" t="str">
+        <f t="shared" ref="A22:V22" si="5">IF(COUNTIF(A$10:A$15, $A43)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="5"/>
+        <v>20221001</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="5"/>
+        <v>20221015</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="5"/>
+        <v>20221022</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="5"/>
+        <v>20221112</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="5"/>
+        <v>20221126</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="5"/>
+        <v>20221203</v>
+      </c>
+      <c r="M22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="5"/>
+        <v>20221217</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="5"/>
+        <v>20230107</v>
+      </c>
+      <c r="P22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="5"/>
+        <v>20230128</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="5"/>
+        <v>20230204</v>
+      </c>
+      <c r="T22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" si="5"/>
+        <v>20230218</v>
+      </c>
+      <c r="V22" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="10">
+        <f t="shared" ref="A23:V23" si="6">IF(COUNTIF(A$10:A$15, $A44)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="6"/>
+        <v>20221008</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="6"/>
+        <v>20221015</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="6"/>
+        <v>20221029</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="6"/>
+        <v>20221105</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="6"/>
+        <v>20221126</v>
+      </c>
+      <c r="L23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="6"/>
+        <v>20221210</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="6"/>
+        <v>20221217</v>
+      </c>
+      <c r="O23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="6"/>
+        <v>20230121</v>
+      </c>
+      <c r="R23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="6"/>
+        <v>20230211</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" si="6"/>
+        <v>20230218</v>
+      </c>
+      <c r="V23" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="10" t="str">
+        <f t="shared" ref="A24:V24" si="7">IF(COUNTIF(A$10:A$15, $A45)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B24" s="10">
+        <f t="shared" si="7"/>
+        <v>20221001</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="7"/>
+        <v>20221002</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="7"/>
+        <v>20221015</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="7"/>
+        <v>20221105</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="7"/>
+        <v>20221119</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="7"/>
+        <v>20221203</v>
+      </c>
+      <c r="M24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="7"/>
+        <v>20230107</v>
+      </c>
+      <c r="P24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="7"/>
+        <v>20230121</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="7"/>
+        <v>20230128</v>
+      </c>
+      <c r="S24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="7"/>
+        <v>20230211</v>
+      </c>
+      <c r="U24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V24" s="10">
+        <f t="shared" si="7"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="10">
+        <f t="shared" ref="A25:V25" si="8">IF(COUNTIF(A$10:A$15, $A46)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="8"/>
+        <v>20221002</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="8"/>
+        <v>20221022</v>
+      </c>
+      <c r="G25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="8"/>
+        <v>20221105</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="8"/>
+        <v>20221119</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="8"/>
+        <v>20221210</v>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="8"/>
+        <v>20230107</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="8"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="8"/>
+        <v>20230128</v>
+      </c>
+      <c r="S25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="T25" s="10">
+        <f t="shared" si="8"/>
+        <v>20230211</v>
+      </c>
+      <c r="U25" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V25" s="10">
+        <f t="shared" si="8"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="10" t="str">
+        <f t="shared" ref="A26:V26" si="9">IF(COUNTIF(A$10:A$15, $A47)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" si="9"/>
+        <v>20221001</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="9"/>
+        <v>20221002</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="9"/>
+        <v>20221022</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="9"/>
+        <v>20221029</v>
+      </c>
+      <c r="H26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="9"/>
+        <v>20221119</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="9"/>
+        <v>20221203</v>
+      </c>
+      <c r="M26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="9"/>
+        <v>20230107</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="9"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="9"/>
+        <v>20230204</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="9"/>
+        <v>20230211</v>
+      </c>
+      <c r="U26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V26" s="10">
+        <f t="shared" si="9"/>
+        <v>20230225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="10">
+        <f t="shared" ref="A27:V27" si="10">IF(COUNTIF(A$10:A$15, $A48)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="10"/>
+        <v>20221002</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="10"/>
+        <v>20221008</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="10"/>
+        <v>20221022</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="10"/>
+        <v>20221105</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="10"/>
+        <v>20221126</v>
+      </c>
+      <c r="L27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="10"/>
+        <v>20221210</v>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="10"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="10"/>
+        <v>20230128</v>
+      </c>
+      <c r="S27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="10"/>
+        <v>20230211</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="10"/>
+        <v>20230218</v>
+      </c>
+      <c r="V27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="10" t="str">
+        <f t="shared" ref="A28:V28" si="11">IF(COUNTIF(A$10:A$15, $A49)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="11"/>
+        <v>20221002</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="11"/>
+        <v>20221008</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="11"/>
+        <v>20221029</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="11"/>
+        <v>20221119</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="11"/>
+        <v>20221126</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="11"/>
+        <v>20221203</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="11"/>
+        <v>20221210</v>
+      </c>
+      <c r="N28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="11"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="11"/>
+        <v>20230121</v>
+      </c>
+      <c r="R28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="11"/>
+        <v>20230204</v>
+      </c>
+      <c r="T28" s="10">
+        <f t="shared" si="11"/>
+        <v>20230211</v>
+      </c>
+      <c r="U28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V28" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="10">
+        <f t="shared" ref="A29:V29" si="12">IF(COUNTIF(A$10:A$15, $A50)&gt;0, A$1, "")</f>
+        <v>20220924</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="12"/>
+        <v>20221008</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="12"/>
+        <v>20221022</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="12"/>
+        <v>20221105</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="12"/>
+        <v>20221112</v>
+      </c>
+      <c r="J29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="12"/>
+        <v>20221126</v>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="12"/>
+        <v>20221210</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="12"/>
+        <v>20221217</v>
+      </c>
+      <c r="O29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="12"/>
+        <v>20230114</v>
+      </c>
+      <c r="Q29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="12"/>
+        <v>20230128</v>
+      </c>
+      <c r="S29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="T29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="U29" s="10">
+        <f t="shared" si="12"/>
+        <v>20230218</v>
+      </c>
+      <c r="V29" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="10" t="str">
+        <f t="shared" ref="A30:V30" si="13">IF(COUNTIF(A$10:A$15, $A51)&gt;0, A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" si="13"/>
+        <v>20221001</v>
+      </c>
+      <c r="C30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="13"/>
+        <v>20221015</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="13"/>
+        <v>20221029</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="13"/>
+        <v>20221112</v>
+      </c>
+      <c r="J30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="13"/>
+        <v>20221126</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="13"/>
+        <v>20221203</v>
+      </c>
+      <c r="M30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="13"/>
+        <v>20221217</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="13"/>
+        <v>20230107</v>
+      </c>
+      <c r="P30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Q30" s="10">
+        <f t="shared" si="13"/>
+        <v>20230121</v>
+      </c>
+      <c r="R30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="13"/>
+        <v>20230204</v>
+      </c>
+      <c r="T30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="U30" s="10">
+        <f t="shared" si="13"/>
+        <v>20230218</v>
+      </c>
+      <c r="V30" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="5" t="str">
+        <f t="shared" ref="A32" si="14">IF(COUNTIF($A$10:$A$15, 2)&gt;0, $A$1, "")</f>
+        <v/>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="3">
+        <v>12</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>